--- a/excel/Text_Functions.xlsx
+++ b/excel/Text_Functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saumyanair/Downloads/Excel Worksheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C43235-393A-DE48-9714-088D9B0784B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C4F7AC-F468-0C4A-B90B-F0BC47668C94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{4F128EAD-5C1D-394A-8D3A-EBB1312E4FA2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>Firstname</t>
   </si>
@@ -81,36 +81,9 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>A1001###^&amp;</t>
-  </si>
-  <si>
-    <t>A1002###(%</t>
-  </si>
-  <si>
-    <t>A1003###%!</t>
-  </si>
-  <si>
-    <t>###^&amp;A1001</t>
-  </si>
-  <si>
-    <t>###(%A1002</t>
-  </si>
-  <si>
-    <t>###%!A1003</t>
-  </si>
-  <si>
     <t>###A1001###</t>
   </si>
   <si>
-    <t>###A1003#####</t>
-  </si>
-  <si>
-    <t>###A1002####!</t>
-  </si>
-  <si>
-    <t>###A1001####^</t>
-  </si>
-  <si>
     <t>Employee Name</t>
   </si>
   <si>
@@ -150,18 +123,6 @@
     <t>####A1003 #</t>
   </si>
   <si>
-    <t>Completed on Feb 15th 2020</t>
-  </si>
-  <si>
-    <t>Completed on Feb 17th 2019</t>
-  </si>
-  <si>
-    <t>Completed on Feb 17th 2017</t>
-  </si>
-  <si>
-    <t>Completed on February 17th 2020</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
@@ -171,12 +132,6 @@
     <t>+971-50-123-45678</t>
   </si>
   <si>
-    <t>+971-55-123-45699</t>
-  </si>
-  <si>
-    <t>+971-54-123-55680</t>
-  </si>
-  <si>
     <t>Phone Number</t>
   </si>
   <si>
@@ -247,6 +202,54 @@
   </si>
   <si>
     <t>=EXACT(B4,C4)</t>
+  </si>
+  <si>
+    <t>+971-55-123-456-99</t>
+  </si>
+  <si>
+    <t>+971-54-123-55-6-80</t>
+  </si>
+  <si>
+    <t>A1001###^&amp;##</t>
+  </si>
+  <si>
+    <t>A1002 ###(%#$</t>
+  </si>
+  <si>
+    <t>A1003# # #%!--!%</t>
+  </si>
+  <si>
+    <t>## #^&amp;A1001</t>
+  </si>
+  <si>
+    <t># #% #(%A1002</t>
+  </si>
+  <si>
+    <t>###^&amp; %!A1003</t>
+  </si>
+  <si>
+    <t>###A1003#### # #</t>
+  </si>
+  <si>
+    <t>###A1002 ####!</t>
+  </si>
+  <si>
+    <t>###A1001 ## ##^</t>
+  </si>
+  <si>
+    <t>Compltd. on Feb 15th 2020</t>
+  </si>
+  <si>
+    <t>Done on Feb 17th 2019</t>
+  </si>
+  <si>
+    <t>Executed February 17th 2020</t>
+  </si>
+  <si>
+    <t>Finished on Feb 17th 2017</t>
+  </si>
+  <si>
+    <t>Wil Gardener</t>
   </si>
 </sst>
 </file>
@@ -358,8 +361,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7A881CBE-B891-4543-B8E8-296B96FC6914}" name="Table4" displayName="Table4" ref="C4:D10" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="C4:D10" xr:uid="{A58AFE16-6F7C-CE41-8787-C2C7701B621F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7A881CBE-B891-4543-B8E8-296B96FC6914}" name="Table4" displayName="Table4" ref="C4:D11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="C4:D11" xr:uid="{A58AFE16-6F7C-CE41-8787-C2C7701B621F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{27C547B5-9AAF-354F-9E10-4F14880F529C}" name="Name" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{2A71EDEB-2C23-0E4F-A845-51EFC66C81C5}" name="Phone" dataDxfId="0"/>
@@ -668,7 +671,7 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,7 +705,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -733,7 +736,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -756,21 +759,21 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -785,7 +788,7 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,64 +804,28 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="str">
-        <f>PROPER(B3)</f>
-        <v>Robert Ranger</v>
-      </c>
-      <c r="D3" t="str">
-        <f>LOWER(B3)</f>
-        <v>robert ranger</v>
-      </c>
-      <c r="E3" t="str">
-        <f>UPPER(B3)</f>
-        <v>ROBERT RANGER</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4:C5" si="0">PROPER(B4)</f>
-        <v>Will Gardener</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:D5" si="1">LOWER(B4)</f>
-        <v>will gardener</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" ref="E4:E5" si="2">UPPER(B4)</f>
-        <v>WILL GARDENER</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>Sandra Stewart</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>sandra stewart</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="2"/>
-        <v>SANDRA STEWART</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +839,7 @@
   <dimension ref="B3:E6"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -884,46 +851,43 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="str">
-        <f>PROPER(B4)</f>
-        <v>Robert Ranger</v>
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5:C6" si="0">PROPER(B5)</f>
-        <v>Will Gardener</v>
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>Sandra Stewart</v>
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -934,10 +898,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2254D9FD-DBDE-474B-B1DC-E2560EE7D8F4}">
-  <dimension ref="C4:D10"/>
+  <dimension ref="C4:D11"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -950,7 +914,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.2">
@@ -977,12 +941,11 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C13" xr:uid="{6A9249F4-7A1B-BB4D-A1B7-51B11946C32D}">
-      <formula1>"AND(EXACT(B5,PROPER(B5)),ISTEXT(B5))"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -995,13 +958,13 @@
   <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
   </cols>
@@ -1020,23 +983,23 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1052,13 +1015,13 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
   </cols>
@@ -1076,23 +1039,23 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1108,13 +1071,13 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
@@ -1132,23 +1095,23 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1164,7 +1127,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1188,23 +1151,23 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1220,7 +1183,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1243,23 +1206,23 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1275,7 +1238,7 @@
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1288,7 +1251,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1299,30 +1262,30 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -1338,7 +1301,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1351,10 +1314,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -1362,23 +1325,23 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1394,7 +1357,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1407,7 +1370,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1418,23 +1381,23 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>

--- a/excel/Text_Functions.xlsx
+++ b/excel/Text_Functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saumyanair/Downloads/Excel Worksheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C4F7AC-F468-0C4A-B90B-F0BC47668C94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2674C52-846E-6142-A679-F97A0AB78DCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{4F128EAD-5C1D-394A-8D3A-EBB1312E4FA2}"/>
   </bookViews>
@@ -26,9 +26,27 @@
     <sheet name="CASE" sheetId="14" r:id="rId11"/>
     <sheet name="EXACT" sheetId="16" r:id="rId12"/>
     <sheet name="DATA VALIDATION" sheetId="17" r:id="rId13"/>
+    <sheet name="TEXT TO NUMBER" sheetId="18" r:id="rId14"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId15"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'SEARCH - WILDCARD'!$B$2:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'TEXT TO NUMBER'!$A$1:$A$1</definedName>
+    <definedName name="Date" localSheetId="13">#REF!</definedName>
+    <definedName name="Date">#REF!</definedName>
+    <definedName name="Price" localSheetId="13">#REF!</definedName>
+    <definedName name="Price">#REF!</definedName>
+    <definedName name="Product" localSheetId="13">#REF!</definedName>
+    <definedName name="Product">#REF!</definedName>
+    <definedName name="Revenue" localSheetId="13">#REF!</definedName>
+    <definedName name="Revenue">#REF!</definedName>
+    <definedName name="SalesPerson">[1]SALESREP!$A$1:$B$73</definedName>
+    <definedName name="SalesRep" localSheetId="13">#REF!</definedName>
+    <definedName name="SalesRep">#REF!</definedName>
+    <definedName name="Units" localSheetId="13">#REF!</definedName>
+    <definedName name="Units">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>Firstname</t>
   </si>
@@ -250,13 +268,34 @@
   </si>
   <si>
     <t>Wil Gardener</t>
+  </si>
+  <si>
+    <t>117.8 kg</t>
+  </si>
+  <si>
+    <t>164.5 kg</t>
+  </si>
+  <si>
+    <t>Extract the Weight Value and Find the Sum</t>
+  </si>
+  <si>
+    <t>148 kg</t>
+  </si>
+  <si>
+    <t>150 kg</t>
+  </si>
+  <si>
+    <t>125 kg</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -264,8 +303,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +339,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -287,19 +360,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E309109B-9F80-F94A-9346-031BEC191D33}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -358,6 +448,624 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SUBTOTAL"/>
+      <sheetName val="IF"/>
+      <sheetName val="IF LOGICAL"/>
+      <sheetName val="IFERROR"/>
+      <sheetName val="SUMIF"/>
+      <sheetName val="SUMIFS"/>
+      <sheetName val="VLOOKUP"/>
+      <sheetName val="SALESREP"/>
+      <sheetName val="IFNA"/>
+      <sheetName val="Data for Index Match"/>
+      <sheetName val="INDEX_MATCH"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SalesRep</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Region</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Allan  Ramos</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Andrew  Meyer</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Arturo  Francis</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>East</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Austin  Reynolds</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>East</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Ben  Perez</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Bernadette  Page</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Beth  Tucker</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Bethany  Pena</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Billie  Chandler</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Blake  Bridges</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>South</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Bobbie  Ryan</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>East</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Brooke  Horton</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Carla  Mccormick</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Cassandra  Franklin</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Cecilia  Manning</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>South</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Charlie  Wood</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Christina  Fuller</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Christy  Olson</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Cindy  Becker</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>South</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Colleen  Warren</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Dan  Peterson</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Della  Jensen</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>East</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Don  Gonzales</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>South</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Donna  Reid</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Drew  Rogers</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Eddie  Green</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>East</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Edwin  Malone</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>East</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Elaine  Ellis</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>South</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Elbert  Klein</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>South</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Ellen  Weaver</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>South</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Elvira  Bowman</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Eric  Rose</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Ernest  Davis</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Felicia  Jennings</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Fernando  Rowe</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Guillermo  Potter</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Herman  Williams</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>East</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Iris  Underwood</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Isabel  Cross</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>East</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Ivan  Adkins</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Jaime  Pearson</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Jenny  Garcia</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Joey  Wong</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Johanna  Boone</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>South</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Kyle  Carr</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Lance  Yates</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Lee  Mack</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Lorraine  Gibson</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>East</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>Lula  Daniels</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>Lynette  Brewer</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>Mable  Lindsey</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Marian  Hill</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>South</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>Marion  Glover</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>East</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Max  Rodgers</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>Nellie  Joseph</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>East</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>Patty  Thompson</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>Paulette  Spencer</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>South</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>Pauline  Beck</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>Peter  Hodges</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>Rachel  Gomez</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>Robert  Munoz</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>Ruben  Nunez</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>Salvador  Bass</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>Sandra  Floyd</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>Shari  Silva</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>South</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>Sonya  Mullins</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>East</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>Sylvester  Morales</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>Tiffany  May</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>Tracy  Reed</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>Trevor  Jones</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>West</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>Willie  Vega</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>MidWest</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>Woodrow  Colon</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>South</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -953,6 +1661,70 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11945EA5-2A5C-6C46-9146-2291D56A2977}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1" xr:uid="{DF5152DD-69A2-004A-A7F7-588CF53A6EEB}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1075F07C-3E52-EB43-9C46-83AE3AA2538C}">
   <dimension ref="B1:D5"/>

--- a/excel/Text_Functions.xlsx
+++ b/excel/Text_Functions.xlsx
@@ -8,44 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saumyanair/Downloads/Excel Worksheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2674C52-846E-6142-A679-F97A0AB78DCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3379EC15-F515-0041-B93A-B89E49A0B89E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{4F128EAD-5C1D-394A-8D3A-EBB1312E4FA2}"/>
   </bookViews>
   <sheets>
-    <sheet name="CONCATENATE" sheetId="1" r:id="rId1"/>
-    <sheet name="LEFT" sheetId="2" r:id="rId2"/>
-    <sheet name="RIGHT" sheetId="3" r:id="rId3"/>
-    <sheet name="MID" sheetId="4" r:id="rId4"/>
-    <sheet name="FIND" sheetId="6" r:id="rId5"/>
-    <sheet name="SEARCH - CASE" sheetId="10" r:id="rId6"/>
-    <sheet name="SEARCH - WILDCARD" sheetId="11" r:id="rId7"/>
-    <sheet name="TRIM" sheetId="7" r:id="rId8"/>
-    <sheet name="SUBSTITUTE" sheetId="12" r:id="rId9"/>
-    <sheet name="LEN" sheetId="8" r:id="rId10"/>
-    <sheet name="CASE" sheetId="14" r:id="rId11"/>
-    <sheet name="EXACT" sheetId="16" r:id="rId12"/>
-    <sheet name="DATA VALIDATION" sheetId="17" r:id="rId13"/>
-    <sheet name="TEXT TO NUMBER" sheetId="18" r:id="rId14"/>
+    <sheet name="LEFT_RIGHT" sheetId="2" r:id="rId1"/>
+    <sheet name="MID" sheetId="4" r:id="rId2"/>
+    <sheet name="FIND" sheetId="6" r:id="rId3"/>
+    <sheet name="SEARCH - CASE" sheetId="10" r:id="rId4"/>
+    <sheet name="SEARCH - WILDCARD" sheetId="11" r:id="rId5"/>
+    <sheet name="SUBSTITUTE" sheetId="12" r:id="rId6"/>
+    <sheet name="OTHER TEXT FUNCTIONS" sheetId="1" r:id="rId7"/>
+    <sheet name="EXACT" sheetId="16" r:id="rId8"/>
+    <sheet name="TEXT TO NUMBER" sheetId="18" r:id="rId9"/>
+    <sheet name="DATA VALIDATION" sheetId="17" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'SEARCH - WILDCARD'!$B$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'TEXT TO NUMBER'!$A$1:$A$1</definedName>
-    <definedName name="Date" localSheetId="13">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'SEARCH - WILDCARD'!$B$2:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'TEXT TO NUMBER'!$A$1:$A$1</definedName>
+    <definedName name="Date" localSheetId="8">#REF!</definedName>
     <definedName name="Date">#REF!</definedName>
-    <definedName name="Price" localSheetId="13">#REF!</definedName>
+    <definedName name="Price" localSheetId="8">#REF!</definedName>
     <definedName name="Price">#REF!</definedName>
-    <definedName name="Product" localSheetId="13">#REF!</definedName>
+    <definedName name="Product" localSheetId="8">#REF!</definedName>
     <definedName name="Product">#REF!</definedName>
-    <definedName name="Revenue" localSheetId="13">#REF!</definedName>
+    <definedName name="Revenue" localSheetId="8">#REF!</definedName>
     <definedName name="Revenue">#REF!</definedName>
     <definedName name="SalesPerson">[1]SALESREP!$A$1:$B$73</definedName>
-    <definedName name="SalesRep" localSheetId="13">#REF!</definedName>
+    <definedName name="SalesRep" localSheetId="8">#REF!</definedName>
     <definedName name="SalesRep">#REF!</definedName>
-    <definedName name="Units" localSheetId="13">#REF!</definedName>
+    <definedName name="Units" localSheetId="8">#REF!</definedName>
     <definedName name="Units">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -58,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
   <si>
     <t>Firstname</t>
   </si>
@@ -81,12 +77,6 @@
     <t>Gardener</t>
   </si>
   <si>
-    <t>Sandra</t>
-  </si>
-  <si>
-    <t>Stewart</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -120,24 +110,12 @@
     <t xml:space="preserve">  Kevin Gardener  </t>
   </si>
   <si>
-    <t xml:space="preserve">  Sandra   Stewart</t>
-  </si>
-  <si>
     <t>=LEN(B4)</t>
   </si>
   <si>
-    <t>###aA1002###</t>
-  </si>
-  <si>
-    <t>a####A1003#</t>
-  </si>
-  <si>
     <t>### a1001 ###</t>
   </si>
   <si>
-    <t>### A1002 ###</t>
-  </si>
-  <si>
     <t>####A1003 #</t>
   </si>
   <si>
@@ -156,9 +134,6 @@
     <t>Proper Case</t>
   </si>
   <si>
-    <t>Lower Case</t>
-  </si>
-  <si>
     <t>Upper Case</t>
   </si>
   <si>
@@ -261,9 +236,6 @@
     <t>Done on Feb 17th 2019</t>
   </si>
   <si>
-    <t>Executed February 17th 2020</t>
-  </si>
-  <si>
     <t>Finished on Feb 17th 2017</t>
   </si>
   <si>
@@ -289,13 +261,73 @@
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>=PROPER()</t>
+  </si>
+  <si>
+    <t>=LOWER()</t>
+  </si>
+  <si>
+    <t>=UPPER()</t>
+  </si>
+  <si>
+    <t>Text Case</t>
+  </si>
+  <si>
+    <t>Data Entry Rules</t>
+  </si>
+  <si>
+    <t>Only Text</t>
+  </si>
+  <si>
+    <t>Only Digits</t>
+  </si>
+  <si>
+    <t>##$$#aA1002###</t>
+  </si>
+  <si>
+    <t>a#---###A1003#</t>
+  </si>
+  <si>
+    <t>##$-# A1002 ###</t>
+  </si>
+  <si>
+    <t>Executed Feb. 17th 2020</t>
+  </si>
+  <si>
+    <t>FIND IS CASE - SENSITIVE</t>
+  </si>
+  <si>
+    <t>SEARCH IS NOT CASE SENSITIVE</t>
+  </si>
+  <si>
+    <t>Weight (Only Number)</t>
+  </si>
+  <si>
+    <t>009715512005699</t>
+  </si>
+  <si>
+    <t>009715012340078</t>
+  </si>
+  <si>
+    <t>009715412355600</t>
+  </si>
+  <si>
+    <t>=SUBSTITUTE(B9,"00","+",1)</t>
+  </si>
+  <si>
+    <t>=VALUE(SUBSTITUTE(A2,"kg",""))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -325,8 +357,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +415,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -372,11 +442,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -384,10 +455,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E309109B-9F80-F94A-9346-031BEC191D33}"/>
   </cellStyles>
@@ -1375,362 +1460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB2C6F-035C-8D45-AC60-3DFD5A109A42}">
-  <dimension ref="B2:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1075F07C-3E52-EB43-9C46-83AE3AA2538C}">
+  <dimension ref="B1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1C621F-8A35-BE4B-B2C4-275B25DCB2E4}">
-  <dimension ref="B2:D5"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C344183-2A2D-2043-AAAC-7D7EDD90E2EC}">
-  <dimension ref="B2:E5"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F157F6-42DA-CF41-88F0-901BF961926D}">
-  <dimension ref="B3:E6"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2254D9FD-DBDE-474B-B1DC-E2560EE7D8F4}">
-  <dimension ref="C4:D11"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11945EA5-2A5C-6C46-9146-2291D56A2977}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="D4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="6"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1" xr:uid="{DF5152DD-69A2-004A-A7F7-588CF53A6EEB}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1075F07C-3E52-EB43-9C46-83AE3AA2538C}">
-  <dimension ref="B1:D5"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1741,40 +1475,78 @@
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1782,68 +1554,107 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D674154F-89F3-4D43-AFF5-09BB1FF4FC4A}">
-  <dimension ref="B2:D5"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2254D9FD-DBDE-474B-B1DC-E2560EE7D8F4}">
+  <dimension ref="C4:H16"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="F10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="F11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E0AA4D-B15C-F540-BFFA-3C025B122620}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1856,37 +1667,40 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1894,12 +1708,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A144D4-F314-534A-9A21-855FC3BB74A7}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1912,37 +1726,45 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1950,12 +1772,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FD3CE4-2EC9-4148-9EC6-3E935DF09C9E}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1967,37 +1789,45 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C3" s="14"/>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="14"/>
       <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2005,12 +1835,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFE9DE1-8006-B04B-BC55-C40104A43168}">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2023,43 +1853,46 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>65</v>
+      <c r="B3" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>66</v>
+      <c r="B4" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>67</v>
+      <c r="B5" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>68</v>
+      <c r="B6" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:D6" xr:uid="{BFF40941-1B01-2141-9C1D-79E52F91B975}"/>
@@ -2068,55 +1901,310 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30022AF2-33C8-AA45-A7EC-1CF4D9BE3736}">
-  <dimension ref="B2:D5"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FBF703-33DE-0E46-A584-F5F526CD4F3F}">
+  <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>18</v>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>19</v>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B9:B11" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB2C6F-035C-8D45-AC60-3DFD5A109A42}">
+  <dimension ref="B2:F17"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F157F6-42DA-CF41-88F0-901BF961926D}">
+  <dimension ref="B3:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2125,57 +2213,92 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FBF703-33DE-0E46-A584-F5F526CD4F3F}">
-  <dimension ref="B2:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11945EA5-2A5C-6C46-9146-2291D56A2977}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5">
+        <f>LEN(B2:B6)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="18">
+        <f>SUM(B2:B6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1" xr:uid="{DF5152DD-69A2-004A-A7F7-588CF53A6EEB}"/>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>